--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -3594,7 +3594,7 @@
         <v>44593</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3597,6 +3597,30 @@
         <v>2</v>
       </c>
     </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44375</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -3050,7 +3050,7 @@
         <v>44375</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44252</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3618,6 +3618,14 @@
         <v>44597</v>
       </c>
       <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B405">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B405"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3627,6 +3627,14 @@
       </c>
       <c r="B405">
         <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B406"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3635,6 +3635,30 @@
       </c>
       <c r="B406">
         <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44602</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44602</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3658,6 +3658,22 @@
         <v>44604</v>
       </c>
       <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B411">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3674,6 +3674,14 @@
         <v>44613</v>
       </c>
       <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B412">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3682,6 +3682,22 @@
         <v>44614</v>
       </c>
       <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B414">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44304</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44304</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3698,6 +3698,14 @@
         <v>44618</v>
       </c>
       <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B415">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3706,6 +3706,14 @@
         <v>44621</v>
       </c>
       <c r="B415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B416">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3715,6 +3715,38 @@
       </c>
       <c r="B416">
         <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3746,6 +3746,46 @@
         <v>44639</v>
       </c>
       <c r="B420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B425">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3789,6 +3789,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3802,6 +3802,14 @@
         <v>44654</v>
       </c>
       <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B428">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3810,6 +3810,30 @@
         <v>44659</v>
       </c>
       <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B431">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3263,23 +3263,23 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44423</v>
+        <v>44421</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -3287,23 +3287,23 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44431</v>
+        <v>44428</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,23 +3319,23 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B367">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44449</v>
+        <v>44438</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44455</v>
+        <v>44449</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44504</v>
+        <v>44486</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44521</v>
+        <v>44514</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,15 +3487,15 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44544</v>
+        <v>44539</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -3503,15 +3503,15 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44549</v>
+        <v>44544</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44575</v>
+        <v>44561</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,23 +3559,23 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,15 +3583,15 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -3599,15 +3599,15 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,15 +3631,15 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,15 +3655,15 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,23 +3703,23 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,39 +3743,39 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44641</v>
+        <v>44639</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,23 +3783,23 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44650</v>
+        <v>44645</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44654</v>
+        <v>44650</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44663</v>
+        <v>44659</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44669</v>
+        <v>44663</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,9 +3831,25 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
         <v>44670</v>
       </c>
-      <c r="B431">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>44684</v>
+      </c>
+      <c r="B433">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B433"/>
+  <dimension ref="A1:B435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3850,6 +3850,22 @@
         <v>44684</v>
       </c>
       <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B435">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3866,6 +3866,14 @@
         <v>44735</v>
       </c>
       <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B436">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B436"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3874,6 +3874,22 @@
         <v>44754</v>
       </c>
       <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B438">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44602</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3890,6 +3890,22 @@
         <v>44765</v>
       </c>
       <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B440">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44602</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3906,6 +3906,14 @@
         <v>44770</v>
       </c>
       <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B441">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44602</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B441"/>
+  <dimension ref="A1:B442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44602</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3914,6 +3914,14 @@
         <v>44771</v>
       </c>
       <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B442">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B442"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3922,6 +3922,30 @@
         <v>44776</v>
       </c>
       <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B445">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B445"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3946,6 +3946,22 @@
         <v>44780</v>
       </c>
       <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B447">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3962,6 +3962,30 @@
         <v>44786</v>
       </c>
       <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B450">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B450"/>
+  <dimension ref="A1:B453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3986,6 +3986,30 @@
         <v>44793</v>
       </c>
       <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>44801</v>
+      </c>
+      <c r="B453">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:B455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4010,6 +4010,22 @@
         <v>44801</v>
       </c>
       <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B455">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B455"/>
+  <dimension ref="A1:B456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4026,6 +4026,14 @@
         <v>44806</v>
       </c>
       <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B456">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44273</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4034,6 +4034,22 @@
         <v>44817</v>
       </c>
       <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B458">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44080</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44255</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44271</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4050,6 +4050,22 @@
         <v>44828</v>
       </c>
       <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B460">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B460"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1007,23 +1007,23 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -1031,47 +1031,47 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -1079,55 +1079,55 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -1135,31 +1135,31 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -1167,39 +1167,39 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44087</v>
+        <v>44084</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1207,31 +1207,31 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1239,23 +1239,23 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -1263,15 +1263,15 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -1287,39 +1287,39 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B114">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,23 +1367,23 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44118</v>
+        <v>44114</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44121</v>
+        <v>44118</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44127</v>
+        <v>44122</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44131</v>
+        <v>44127</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1415,31 +1415,31 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -1447,15 +1447,15 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1463,15 +1463,15 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44149</v>
+        <v>44145</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44157</v>
+        <v>44149</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -1479,15 +1479,15 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1495,23 +1495,23 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -1519,39 +1519,39 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1559,63 +1559,63 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44173</v>
+        <v>44169</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44176</v>
+        <v>44173</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44183</v>
+        <v>44179</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -1631,31 +1631,31 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -1671,15 +1671,15 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -1687,23 +1687,23 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -1719,15 +1719,15 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -1735,207 +1735,207 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B171">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B172">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B173">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B176">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B177">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B178">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B179">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B181">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B182">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B187">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B189">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B190">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -1943,135 +1943,135 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B195">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B198">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B201">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B202">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -2079,47 +2079,47 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B215">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -2127,15 +2127,15 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B218">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B219">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -2151,23 +2151,23 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -2183,15 +2183,15 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -2199,15 +2199,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B228">
         <v>4</v>
@@ -2215,23 +2215,23 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B231">
         <v>4</v>
@@ -2239,31 +2239,31 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -2271,23 +2271,23 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -2295,31 +2295,31 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B240">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2343,167 +2343,167 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B247">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B251">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B257">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B264">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B265">
         <v>5</v>
@@ -2511,159 +2511,159 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B267">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B268">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B269">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B274">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B277">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B279">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B281">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B283">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B284">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B285">
         <v>5</v>
@@ -2671,31 +2671,31 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B287">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B288">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B289">
         <v>8</v>
@@ -2703,87 +2703,87 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B291">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B292">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B293">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B295">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B298">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B300">
         <v>3</v>
@@ -2791,127 +2791,127 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B301">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B302">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B304">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B308">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B309">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B310">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B312">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B319">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -2967,15 +2967,15 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -2983,55 +2983,55 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B326">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B328">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B329">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -3047,15 +3047,15 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -3071,23 +3071,23 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B336">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44387</v>
+        <v>44384</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -3143,39 +3143,39 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44397</v>
+        <v>44395</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -3183,23 +3183,23 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44402</v>
+        <v>44400</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,39 +3215,39 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,23 +3271,23 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44423</v>
+        <v>44421</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -3295,23 +3295,23 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44431</v>
+        <v>44428</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -3327,23 +3327,23 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B368">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44449</v>
+        <v>44438</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44455</v>
+        <v>44449</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44504</v>
+        <v>44486</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44521</v>
+        <v>44514</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44532</v>
+        <v>44521</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -3495,15 +3495,15 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44544</v>
+        <v>44539</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -3511,15 +3511,15 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44549</v>
+        <v>44544</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44575</v>
+        <v>44561</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -3567,23 +3567,23 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -3591,15 +3591,15 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -3607,15 +3607,15 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -3639,15 +3639,15 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -3663,15 +3663,15 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -3711,23 +3711,23 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44621</v>
+        <v>44618</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44630</v>
+        <v>44623</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -3751,39 +3751,39 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44641</v>
+        <v>44639</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -3791,23 +3791,23 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44650</v>
+        <v>44645</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44654</v>
+        <v>44650</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44663</v>
+        <v>44659</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44669</v>
+        <v>44663</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44684</v>
+        <v>44670</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,23 +3855,23 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44716</v>
+        <v>44684</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44735</v>
+        <v>44716</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44754</v>
+        <v>44735</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44764</v>
+        <v>44754</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44768</v>
+        <v>44765</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44770</v>
+        <v>44768</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44776</v>
+        <v>44771</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44778</v>
+        <v>44776</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,23 +3935,23 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44785</v>
+        <v>44780</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,23 +3967,23 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44788</v>
+        <v>44786</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44791</v>
+        <v>44788</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44793</v>
+        <v>44791</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,23 +3991,23 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44797</v>
+        <v>44793</v>
       </c>
       <c r="B451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44800</v>
+        <v>44797</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,23 +4015,23 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44805</v>
+        <v>44801</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44823</v>
+        <v>44817</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44828</v>
+        <v>44823</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44830</v>
+        <v>44828</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,9 +4063,33 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
         <v>44834</v>
       </c>
-      <c r="B460">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B463">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44834</v>
+        <v>44832</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4082,14 +4082,6 @@
         <v>44840</v>
       </c>
       <c r="B462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B463">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4026,7 +4026,7 @@
         <v>44805</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4082,6 +4082,14 @@
         <v>44840</v>
       </c>
       <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>44871</v>
+      </c>
+      <c r="B463">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3946,7 +3946,7 @@
         <v>44779</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44791</v>
+        <v>44797</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44793</v>
+        <v>44805</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,15 +3999,15 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44797</v>
+        <v>44806</v>
       </c>
       <c r="B452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44800</v>
+        <v>44817</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44801</v>
+        <v>44823</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44805</v>
+        <v>44828</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44806</v>
+        <v>44830</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44817</v>
+        <v>44832</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44823</v>
+        <v>44840</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,41 +4055,9 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44828</v>
+        <v>44871</v>
       </c>
       <c r="B459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="2">
-        <v>44830</v>
-      </c>
-      <c r="B460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
-      <c r="A461" s="2">
-        <v>44832</v>
-      </c>
-      <c r="B461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
-      <c r="A463" s="2">
-        <v>44871</v>
-      </c>
-      <c r="B463">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B459"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44765</v>
+        <v>44768</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44768</v>
+        <v>44770</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44771</v>
+        <v>44776</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44780</v>
+        <v>44785</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,23 +3967,23 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44788</v>
+        <v>44797</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44797</v>
+        <v>44805</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44817</v>
+        <v>44823</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44823</v>
+        <v>44828</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44828</v>
+        <v>44830</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44832</v>
+        <v>44840</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,17 +4047,9 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44840</v>
+        <v>44871</v>
       </c>
       <c r="B458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
-      <c r="A459" s="2">
-        <v>44871</v>
-      </c>
-      <c r="B459">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -402,7 +402,7 @@
         <v>43929</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43938</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43945</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43952</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43953</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43956</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43957</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43960</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43965</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43968</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43971</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43972</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43973</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43979</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43980</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43983</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43984</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43985</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43986</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43987</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43989</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43990</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43991</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43992</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43996</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43997</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43998</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>44000</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>44002</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>44003</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44011</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44012</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44014</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44015</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44016</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44017</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44018</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44019</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44020</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44021</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44022</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44024</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44025</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44027</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44028</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44029</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44030</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44031</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44032</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44033</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44035</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44036</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44038</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44039</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44040</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44041</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44042</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44044</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44046</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44047</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44048</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44049</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44050</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44051</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44052</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44053</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44054</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44055</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44056</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44057</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44058</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44059</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44061</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44062</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44063</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44064</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44065</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44066</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44067</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44068</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44069</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44070</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44071</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44072</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44073</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44075</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44076</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44077</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44078</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44079</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44080</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44081</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44082</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44083</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44084</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44087</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44089</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44090</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44091</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44092</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44093</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44094</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44095</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44096</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44098</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44100</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44101</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44102</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44103</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44104</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44107</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44108</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44110</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44111</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44112</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44113</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44114</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44118</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44121</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44122</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44127</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44131</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44133</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44137</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44138</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44139</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44144</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44145</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44149</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44157</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44158</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44159</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44160</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44161</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44162</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44163</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44164</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44165</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44166</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44167</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44169</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44173</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44176</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44177</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44178</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44179</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44183</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44185</v>
       </c>
       <c r="B155">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44186</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44188</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44189</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44190</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44191</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44194</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44196</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44198</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44199</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44200</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44201</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44202</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44203</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44204</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44205</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44206</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44207</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44208</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44209</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44210</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44211</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44212</v>
       </c>
       <c r="B177">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44213</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44214</v>
       </c>
       <c r="B179">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44215</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44216</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44217</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44218</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44219</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44220</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44221</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44222</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44223</v>
       </c>
       <c r="B188">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44224</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44225</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44226</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44227</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44228</v>
       </c>
       <c r="B193">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44229</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44230</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44231</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44232</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44233</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44234</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44236</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44237</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44238</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44239</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44240</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44241</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44242</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44243</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44244</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44246</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44247</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44248</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44249</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44250</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44251</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44252</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44253</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44254</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44256</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44257</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44258</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44259</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44260</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44261</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44262</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44263</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44264</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44265</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44266</v>
       </c>
       <c r="B229">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44267</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44268</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44269</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44270</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44272</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44274</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44275</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44276</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44277</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44278</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44279</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44280</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44281</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44282</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44283</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44284</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44285</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44286</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44287</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44288</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44289</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44290</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44291</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44292</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44293</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44294</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44295</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44296</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44297</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44298</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44299</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44300</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44301</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44302</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44303</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44304</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44305</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44306</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44307</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44308</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44309</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44310</v>
       </c>
       <c r="B273">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44311</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44312</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44313</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44314</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44315</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44316</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44317</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44318</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44319</v>
       </c>
       <c r="B282">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44320</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44321</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44322</v>
       </c>
       <c r="B285">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44323</v>
       </c>
       <c r="B286">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44324</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44325</v>
       </c>
       <c r="B288">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44326</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44327</v>
       </c>
       <c r="B290">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44328</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44329</v>
       </c>
       <c r="B292">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44330</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44331</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44332</v>
       </c>
       <c r="B295">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44333</v>
       </c>
       <c r="B296">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44334</v>
       </c>
       <c r="B297">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44335</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44336</v>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44337</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44338</v>
       </c>
       <c r="B301">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44339</v>
       </c>
       <c r="B302">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44341</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44342</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44343</v>
       </c>
       <c r="B305">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44344</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44345</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44346</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44347</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44348</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44349</v>
       </c>
       <c r="B311">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44350</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44351</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44352</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44353</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44354</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44355</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44356</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44357</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44358</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44359</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44361</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44363</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44364</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44365</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44366</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44367</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44368</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44369</v>
       </c>
       <c r="B329">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44371</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44372</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44373</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44374</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44375</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44376</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44377</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44378</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44382</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44383</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44384</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44387</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44388</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44389</v>
       </c>
       <c r="B343">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44390</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44391</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44393</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44394</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44395</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44397</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44398</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44399</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44400</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44402</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44403</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44405</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44406</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44407</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44408</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44410</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44417</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44419</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44420</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44421</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44423</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44426</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44428</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44431</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44432</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44435</v>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44438</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44449</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44455</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44459</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44460</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44466</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44468</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44475</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44477</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44480</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44485</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44486</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44504</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44509</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44511</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44513</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44514</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44521</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44532</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44536</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44539</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44544</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44549</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44556</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44557</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44561</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44575</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44581</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44582</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44584</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44586</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44589</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44591</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44593</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44594</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44596</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44597</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44599</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44601</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44602</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44603</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44604</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44612</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44613</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44614</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44615</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44618</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44621</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44623</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44630</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44631</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44636</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44639</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44641</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44642</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44643</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44644</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44645</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44650</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44654</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44659</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44663</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44669</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44670</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44684</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44716</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44735</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44754</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44764</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44768</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44770</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44771</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44776</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44778</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44779</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44780</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44785</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44786</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44788</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44797</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44805</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44806</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44817</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44823</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44828</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44830</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44832</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44840</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44871</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -402,7 +402,7 @@
         <v>43929</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>43938</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>43945</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>43952</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>43953</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>43956</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>43957</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>43960</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>43965</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>43968</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>43971</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>43972</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>43973</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>43979</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>43980</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>43983</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>43984</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>43985</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>43986</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>43987</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>43989</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>43990</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>43991</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>43992</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>43996</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>43997</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>43998</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>44000</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>44002</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>44003</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>44011</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>44012</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>44014</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>44015</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>44016</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>44017</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>44018</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>44019</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>44020</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>44021</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>44022</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>44024</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>44025</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>44026</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>44027</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>44028</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>44029</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>44030</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44031</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44032</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44033</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44035</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44036</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44038</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44039</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44040</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44041</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44042</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>44044</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44046</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44047</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44048</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44049</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44050</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44051</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44052</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44053</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44054</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44055</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>44056</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>44057</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>44058</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>44059</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>44061</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44062</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>44063</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44064</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44065</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>44066</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>44067</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44068</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>44069</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>44070</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>44071</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44072</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44073</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>44074</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>44075</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>44076</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>44077</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>44078</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44079</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44080</v>
       </c>
       <c r="B98">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>44081</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44082</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>44083</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>44084</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>44087</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>44089</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>44090</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>44091</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>44092</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>44093</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>44094</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>44095</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>44096</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>44098</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>44100</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44101</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>44102</v>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>44103</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>44104</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44107</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>44108</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>44110</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>44111</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44112</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>44113</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>44114</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>44118</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>44121</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44122</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>44127</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>44131</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>44133</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>44137</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44138</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>44139</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>44144</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44145</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>44149</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44157</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44158</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>44159</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>44160</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>44161</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44162</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>44163</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>44164</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>44165</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44166</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>44167</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>44169</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>44173</v>
       </c>
       <c r="B149">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>44176</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>44177</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>44178</v>
       </c>
       <c r="B152">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>44179</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>44183</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>44185</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>44186</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>44188</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>44189</v>
       </c>
       <c r="B158">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>44190</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>44191</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>44194</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>44196</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>44198</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>44199</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>44200</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>44201</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>44202</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>44203</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>44204</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>44205</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44206</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>44207</v>
       </c>
       <c r="B172">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44208</v>
       </c>
       <c r="B173">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>44209</v>
       </c>
       <c r="B174">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>44210</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>44211</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>44212</v>
       </c>
       <c r="B177">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>44213</v>
       </c>
       <c r="B178">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>44214</v>
       </c>
       <c r="B179">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44215</v>
       </c>
       <c r="B180">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>44216</v>
       </c>
       <c r="B181">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>44217</v>
       </c>
       <c r="B182">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>44218</v>
       </c>
       <c r="B183">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>44219</v>
       </c>
       <c r="B184">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>44220</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>44221</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>44222</v>
       </c>
       <c r="B187">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44223</v>
       </c>
       <c r="B188">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>44224</v>
       </c>
       <c r="B189">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44225</v>
       </c>
       <c r="B190">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>44226</v>
       </c>
       <c r="B191">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44227</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44228</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>44229</v>
       </c>
       <c r="B194">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>44230</v>
       </c>
       <c r="B195">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>44231</v>
       </c>
       <c r="B196">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>44232</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>44233</v>
       </c>
       <c r="B198">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>44234</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>44236</v>
       </c>
       <c r="B200">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>44237</v>
       </c>
       <c r="B201">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>44238</v>
       </c>
       <c r="B202">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44239</v>
       </c>
       <c r="B203">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44240</v>
       </c>
       <c r="B204">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44241</v>
       </c>
       <c r="B205">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>44242</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>44243</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>44244</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>44246</v>
       </c>
       <c r="B209">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44247</v>
       </c>
       <c r="B210">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>44248</v>
       </c>
       <c r="B211">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>44249</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>44250</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>44251</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>44252</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>44253</v>
       </c>
       <c r="B216">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>44254</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>44256</v>
       </c>
       <c r="B219">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>44257</v>
       </c>
       <c r="B220">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44258</v>
       </c>
       <c r="B221">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>44259</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>44260</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>44261</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44262</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>44263</v>
       </c>
       <c r="B226">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44264</v>
       </c>
       <c r="B227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44265</v>
       </c>
       <c r="B228">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>44266</v>
       </c>
       <c r="B229">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>44267</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>44268</v>
       </c>
       <c r="B231">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44269</v>
       </c>
       <c r="B232">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>44270</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44272</v>
       </c>
       <c r="B235">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>44274</v>
       </c>
       <c r="B237">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44275</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>44276</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44277</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>44278</v>
       </c>
       <c r="B241">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>44279</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>44280</v>
       </c>
       <c r="B243">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>44281</v>
       </c>
       <c r="B244">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>44282</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>44283</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44284</v>
       </c>
       <c r="B247">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>44285</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>44286</v>
       </c>
       <c r="B249">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>44287</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>44288</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>44289</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44290</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>44291</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>44292</v>
       </c>
       <c r="B255">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>44293</v>
       </c>
       <c r="B256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>44294</v>
       </c>
       <c r="B257">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44295</v>
       </c>
       <c r="B258">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>44296</v>
       </c>
       <c r="B259">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>44297</v>
       </c>
       <c r="B260">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>44298</v>
       </c>
       <c r="B261">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>44299</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>44300</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44301</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>44302</v>
       </c>
       <c r="B265">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>44303</v>
       </c>
       <c r="B266">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>44304</v>
       </c>
       <c r="B267">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44305</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>44306</v>
       </c>
       <c r="B269">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>44307</v>
       </c>
       <c r="B270">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44308</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>44309</v>
       </c>
       <c r="B272">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44310</v>
       </c>
       <c r="B273">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44311</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44312</v>
       </c>
       <c r="B275">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44313</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44314</v>
       </c>
       <c r="B277">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>44315</v>
       </c>
       <c r="B278">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>44316</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>44317</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44318</v>
       </c>
       <c r="B281">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44319</v>
       </c>
       <c r="B282">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>44320</v>
       </c>
       <c r="B283">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>44321</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>44322</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>44323</v>
       </c>
       <c r="B286">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>44324</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>44325</v>
       </c>
       <c r="B288">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>44326</v>
       </c>
       <c r="B289">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>44327</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>44328</v>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44329</v>
       </c>
       <c r="B292">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>44330</v>
       </c>
       <c r="B293">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>44331</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44332</v>
       </c>
       <c r="B295">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44333</v>
       </c>
       <c r="B296">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>44334</v>
       </c>
       <c r="B297">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44335</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>44336</v>
       </c>
       <c r="B299">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>44337</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44338</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44339</v>
       </c>
       <c r="B302">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>44341</v>
       </c>
       <c r="B303">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44342</v>
       </c>
       <c r="B304">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>44343</v>
       </c>
       <c r="B305">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>44344</v>
       </c>
       <c r="B306">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>44345</v>
       </c>
       <c r="B307">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>44346</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44347</v>
       </c>
       <c r="B309">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>44348</v>
       </c>
       <c r="B310">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>44349</v>
       </c>
       <c r="B311">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>44350</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>44351</v>
       </c>
       <c r="B313">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>44352</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>44353</v>
       </c>
       <c r="B315">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>44354</v>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>44355</v>
       </c>
       <c r="B317">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>44356</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44357</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44358</v>
       </c>
       <c r="B320">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>44359</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>44361</v>
       </c>
       <c r="B322">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>44363</v>
       </c>
       <c r="B323">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>44364</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>44365</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>44366</v>
       </c>
       <c r="B326">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>44367</v>
       </c>
       <c r="B327">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44368</v>
       </c>
       <c r="B328">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>44369</v>
       </c>
       <c r="B329">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>44371</v>
       </c>
       <c r="B330">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>44372</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>44373</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>44374</v>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>44375</v>
       </c>
       <c r="B334">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44376</v>
       </c>
       <c r="B335">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>44377</v>
       </c>
       <c r="B336">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>44378</v>
       </c>
       <c r="B337">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>44382</v>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>44383</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>44384</v>
       </c>
       <c r="B340">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>44387</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>44388</v>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44389</v>
       </c>
       <c r="B343">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>44390</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44391</v>
       </c>
       <c r="B345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>44393</v>
       </c>
       <c r="B346">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>44394</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>44395</v>
       </c>
       <c r="B348">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>44397</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>44398</v>
       </c>
       <c r="B350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>44399</v>
       </c>
       <c r="B351">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>44400</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>44402</v>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>44403</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44405</v>
       </c>
       <c r="B355">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>44406</v>
       </c>
       <c r="B356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44407</v>
       </c>
       <c r="B357">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>44408</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>44410</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>44417</v>
       </c>
       <c r="B360">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>44419</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>44420</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>44421</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>44423</v>
       </c>
       <c r="B364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>44426</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>44428</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>44431</v>
       </c>
       <c r="B367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>44432</v>
       </c>
       <c r="B368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44435</v>
       </c>
       <c r="B369">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>44438</v>
       </c>
       <c r="B370">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>44449</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>44455</v>
       </c>
       <c r="B372">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>44459</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>44460</v>
       </c>
       <c r="B374">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>44466</v>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>44468</v>
       </c>
       <c r="B376">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>44475</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>44477</v>
       </c>
       <c r="B378">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44480</v>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44485</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>44486</v>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>44504</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>44509</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>44511</v>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>44513</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>44514</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44521</v>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>44532</v>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>44536</v>
       </c>
       <c r="B389">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>44539</v>
       </c>
       <c r="B390">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44544</v>
       </c>
       <c r="B391">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>44549</v>
       </c>
       <c r="B392">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>44556</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>44557</v>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>44561</v>
       </c>
       <c r="B395">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>44575</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>44581</v>
       </c>
       <c r="B397">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>44582</v>
       </c>
       <c r="B398">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44584</v>
       </c>
       <c r="B399">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44586</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>44589</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>44591</v>
       </c>
       <c r="B402">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44593</v>
       </c>
       <c r="B403">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>44594</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>44596</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>44597</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>44599</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>44601</v>
       </c>
       <c r="B408">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>44602</v>
       </c>
       <c r="B409">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>44603</v>
       </c>
       <c r="B410">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>44604</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>44612</v>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>44613</v>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>44614</v>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>44615</v>
       </c>
       <c r="B415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>44618</v>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>44621</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>44623</v>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>44630</v>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>44631</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>44636</v>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>44639</v>
       </c>
       <c r="B422">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>44641</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>44642</v>
       </c>
       <c r="B424">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>44643</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>44644</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>44645</v>
       </c>
       <c r="B427">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>44650</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>44654</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>44659</v>
       </c>
       <c r="B430">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>44663</v>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44669</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>44670</v>
       </c>
       <c r="B433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>44684</v>
       </c>
       <c r="B434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>44716</v>
       </c>
       <c r="B435">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44735</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>44754</v>
       </c>
       <c r="B437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>44764</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>44768</v>
       </c>
       <c r="B439">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>44770</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>44771</v>
       </c>
       <c r="B441">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>44776</v>
       </c>
       <c r="B442">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>44778</v>
       </c>
       <c r="B443">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44779</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44780</v>
       </c>
       <c r="B445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>44785</v>
       </c>
       <c r="B446">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>44786</v>
       </c>
       <c r="B447">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>44788</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>44797</v>
       </c>
       <c r="B449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>44805</v>
       </c>
       <c r="B450">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>44806</v>
       </c>
       <c r="B451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>44817</v>
       </c>
       <c r="B452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44823</v>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>44828</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>44830</v>
       </c>
       <c r="B455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>44832</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>44840</v>
       </c>
       <c r="B457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>44871</v>
       </c>
       <c r="B458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -895,23 +895,23 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -919,39 +919,39 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B69">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -959,39 +959,39 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -999,15 +999,15 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>44226</v>
       </c>
       <c r="B191">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>44269</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>44310</v>
       </c>
       <c r="B273">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>44311</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>44318</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44332</v>
       </c>
       <c r="B295">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>44333</v>
       </c>
       <c r="B296">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44339</v>
       </c>
       <c r="B302">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>44342</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>44358</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44368</v>
       </c>
       <c r="B328">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>44376</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>44389</v>
       </c>
       <c r="B343">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>44405</v>
       </c>
       <c r="B355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>44407</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3319,7 +3319,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44431</v>
+        <v>44429</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -3335,23 +3335,23 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B369">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44449</v>
+        <v>44438</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44455</v>
+        <v>44447</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44459</v>
+        <v>44449</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44466</v>
+        <v>44459</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44468</v>
+        <v>44460</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44475</v>
+        <v>44466</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44480</v>
+        <v>44475</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44485</v>
+        <v>44477</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44486</v>
+        <v>44480</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,15 +3439,15 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44504</v>
+        <v>44485</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44509</v>
+        <v>44486</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44511</v>
+        <v>44504</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44513</v>
+        <v>44509</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44514</v>
+        <v>44511</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44521</v>
+        <v>44513</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -3503,15 +3503,15 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44544</v>
+        <v>44539</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -3519,15 +3519,15 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44549</v>
+        <v>44544</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44575</v>
+        <v>44561</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,23 +3575,23 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -3599,31 +3599,31 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -3631,15 +3631,15 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44597</v>
+        <v>44593</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44599</v>
+        <v>44594</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -3647,23 +3647,23 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44601</v>
+        <v>44597</v>
       </c>
       <c r="B408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44602</v>
+        <v>44599</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44603</v>
+        <v>44601</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -3671,23 +3671,23 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44604</v>
+        <v>44602</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44612</v>
+        <v>44603</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44613</v>
+        <v>44604</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44614</v>
+        <v>44612</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44615</v>
+        <v>44613</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44618</v>
+        <v>44614</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -3719,15 +3719,15 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44623</v>
+        <v>44618</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44630</v>
+        <v>44620</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,15 +3743,15 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44631</v>
+        <v>44621</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44636</v>
+        <v>44630</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -3759,15 +3759,15 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44639</v>
+        <v>44631</v>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44641</v>
+        <v>44636</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,23 +3775,23 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44642</v>
+        <v>44639</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -3799,23 +3799,23 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44650</v>
+        <v>44645</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44654</v>
+        <v>44650</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44663</v>
+        <v>44659</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44669</v>
+        <v>44663</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44670</v>
+        <v>44666</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44684</v>
+        <v>44669</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,31 +3863,31 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44716</v>
+        <v>44684</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44735</v>
+        <v>44686</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44754</v>
+        <v>44716</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44764</v>
+        <v>44735</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44768</v>
+        <v>44744</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44770</v>
+        <v>44750</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44771</v>
+        <v>44754</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44776</v>
+        <v>44764</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44778</v>
+        <v>44768</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44779</v>
+        <v>44770</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44780</v>
+        <v>44771</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44786</v>
+        <v>44778</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,15 +3967,15 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44788</v>
+        <v>44779</v>
       </c>
       <c r="B448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44797</v>
+        <v>44780</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44805</v>
+        <v>44785</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44806</v>
+        <v>44786</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,15 +3999,15 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44817</v>
+        <v>44788</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44823</v>
+        <v>44797</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44828</v>
+        <v>44805</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44830</v>
+        <v>44806</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44832</v>
+        <v>44817</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44840</v>
+        <v>44823</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,9 +4047,49 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
         <v>44871</v>
       </c>
-      <c r="B458">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B463">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4090,6 +4090,30 @@
         <v>44896</v>
       </c>
       <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>44910</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>44913</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B466">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -850,7 +850,7 @@
         <v>44037</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44080</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>44271</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -746,7 +746,7 @@
         <v>44023</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>44080</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>44273</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B466"/>
+  <dimension ref="A1:B468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2130,7 +2130,7 @@
         <v>44255</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4114,6 +4114,22 @@
         <v>44915</v>
       </c>
       <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B468">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B468"/>
+  <dimension ref="A1:B471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1015,23 +1015,23 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -1039,47 +1039,47 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1087,55 +1087,55 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -1143,31 +1143,31 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1175,39 +1175,39 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44087</v>
+        <v>44084</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1215,31 +1215,31 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1247,23 +1247,23 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -1271,15 +1271,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -1295,39 +1295,39 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44118</v>
+        <v>44114</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44121</v>
+        <v>44118</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44127</v>
+        <v>44122</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44131</v>
+        <v>44127</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1423,31 +1423,31 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -1455,15 +1455,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,15 +1471,15 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44149</v>
+        <v>44145</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44149</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1487,15 +1487,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,23 +1503,23 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1527,39 +1527,39 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,63 +1567,63 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44173</v>
+        <v>44169</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44176</v>
+        <v>44173</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44183</v>
+        <v>44179</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -1639,31 +1639,31 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -1695,23 +1695,23 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -1727,15 +1727,15 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -1743,207 +1743,207 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B177">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B179">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B188">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B193">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -1951,135 +1951,135 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -2087,47 +2087,47 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -2135,15 +2135,15 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -2159,23 +2159,23 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -2207,15 +2207,15 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B229">
         <v>4</v>
@@ -2223,79 +2223,79 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,31 +2303,31 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -2351,167 +2351,167 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B266">
         <v>5</v>
@@ -2519,119 +2519,119 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B281">
         <v>5</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B282">
         <v>5</v>
@@ -2647,31 +2647,31 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B285">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B286">
         <v>5</v>
@@ -2679,31 +2679,31 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B288">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,55 +2711,55 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B292">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -2767,31 +2767,31 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -2799,23 +2799,23 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B304">
         <v>4</v>
@@ -2823,103 +2823,103 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B305">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B311">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -2927,15 +2927,15 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -2943,23 +2943,23 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B320">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -2975,15 +2975,15 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,55 +2991,55 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B329">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -3055,47 +3055,47 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44387</v>
+        <v>44384</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,39 +3151,39 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44397</v>
+        <v>44395</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44402</v>
+        <v>44400</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,23 +3279,23 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44423</v>
+        <v>44421</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,23 +3303,23 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44431</v>
+        <v>44429</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,23 +3343,23 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44447</v>
+        <v>44438</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44449</v>
+        <v>44447</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44455</v>
+        <v>44449</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,23 +3439,23 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44504</v>
+        <v>44486</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44523</v>
+        <v>44513</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -3511,15 +3511,15 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44544</v>
+        <v>44539</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44549</v>
+        <v>44544</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44575</v>
+        <v>44561</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,23 +3583,23 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -3615,39 +3615,39 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44597</v>
+        <v>44594</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -3663,15 +3663,15 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -3687,15 +3687,15 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,23 +3743,23 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44630</v>
+        <v>44621</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,23 +3783,23 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44642</v>
+        <v>44639</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,23 +3807,23 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44650</v>
+        <v>44645</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44654</v>
+        <v>44650</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44663</v>
+        <v>44659</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44684</v>
+        <v>44669</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -3871,15 +3871,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44716</v>
+        <v>44686</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -3887,15 +3887,15 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44735</v>
+        <v>44716</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44744</v>
+        <v>44735</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44750</v>
+        <v>44744</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44764</v>
+        <v>44754</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44768</v>
+        <v>44764</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44770</v>
+        <v>44768</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44776</v>
+        <v>44771</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44778</v>
+        <v>44776</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44779</v>
+        <v>44777</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44780</v>
+        <v>44778</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44785</v>
+        <v>44779</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44786</v>
+        <v>44780</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,15 +3999,15 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44788</v>
+        <v>44785</v>
       </c>
       <c r="B452">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44797</v>
+        <v>44786</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -4015,15 +4015,15 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44805</v>
+        <v>44788</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44806</v>
+        <v>44797</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44817</v>
+        <v>44805</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44823</v>
+        <v>44806</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44828</v>
+        <v>44817</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44830</v>
+        <v>44823</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44832</v>
+        <v>44828</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44840</v>
+        <v>44830</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44871</v>
+        <v>44832</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44896</v>
+        <v>44840</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44910</v>
+        <v>44871</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44913</v>
+        <v>44896</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44915</v>
+        <v>44910</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44932</v>
+        <v>44913</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,9 +4127,33 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>44932</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
         <v>44944</v>
       </c>
-      <c r="B468">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B471">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1015,23 +1015,23 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44059</v>
+        <v>44061</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44062</v>
+        <v>44063</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -1039,47 +1039,47 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44063</v>
+        <v>44064</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44064</v>
+        <v>44065</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44066</v>
+        <v>44067</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1087,55 +1087,55 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44071</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -1143,31 +1143,31 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44078</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44079</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1175,39 +1175,39 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44083</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44084</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44087</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1215,31 +1215,31 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44087</v>
+        <v>44089</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1247,23 +1247,23 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44092</v>
+        <v>44093</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44093</v>
+        <v>44094</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -1271,15 +1271,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44096</v>
+        <v>44098</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44098</v>
+        <v>44100</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -1295,39 +1295,39 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44100</v>
+        <v>44101</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44104</v>
+        <v>44107</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44107</v>
+        <v>44108</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44114</v>
+        <v>44118</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44118</v>
+        <v>44121</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44122</v>
+        <v>44127</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44127</v>
+        <v>44131</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1423,31 +1423,31 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44133</v>
+        <v>44137</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -1455,15 +1455,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,15 +1471,15 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44145</v>
+        <v>44149</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44149</v>
+        <v>44157</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1487,15 +1487,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,23 +1503,23 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1527,39 +1527,39 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,63 +1567,63 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44173</v>
+        <v>44176</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44176</v>
+        <v>44177</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44177</v>
+        <v>44178</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44178</v>
+        <v>44179</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44179</v>
+        <v>44183</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44183</v>
+        <v>44185</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -1639,31 +1639,31 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44188</v>
+        <v>44189</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44189</v>
+        <v>44190</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44190</v>
+        <v>44191</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44191</v>
+        <v>44194</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44194</v>
+        <v>44196</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44196</v>
+        <v>44198</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -1695,23 +1695,23 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -1727,15 +1727,15 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -1743,207 +1743,207 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="B173">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="B174">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="B175">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="B178">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="B179">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="B181">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="B182">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="B183">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="B184">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="B188">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B189">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="B190">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="B192">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -1951,135 +1951,135 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B197">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44234</v>
+        <v>44236</v>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B202">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="B204">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="B210">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -2087,47 +2087,47 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="B217">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -2135,15 +2135,15 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -2159,23 +2159,23 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -2207,15 +2207,15 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B229">
         <v>4</v>
@@ -2223,79 +2223,79 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="B230">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="B232">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="B233">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="B238">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,31 +2303,31 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -2351,167 +2351,167 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="B247">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="B248">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="B251">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="B254">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="B256">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="B259">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="B260">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="B261">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B266">
         <v>5</v>
@@ -2519,119 +2519,119 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B267">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="B268">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="B269">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="B270">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="B271">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="B273">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="B275">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="B276">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="B279">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="B281">
         <v>5</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B282">
         <v>5</v>
@@ -2647,31 +2647,31 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="B283">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="B286">
         <v>5</v>
@@ -2679,31 +2679,31 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="B287">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B289">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,55 +2711,55 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="B291">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="B294">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="B296">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -2767,31 +2767,31 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B298">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="B299">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="B300">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -2799,23 +2799,23 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44339</v>
+        <v>44341</v>
       </c>
       <c r="B303">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="B304">
         <v>4</v>
@@ -2823,103 +2823,103 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="B305">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="B306">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="B307">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="B308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B310">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="B311">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="B312">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -2927,15 +2927,15 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -2943,23 +2943,23 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="B321">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -2975,15 +2975,15 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,55 +2991,55 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="B328">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="B329">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="B330">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -3055,47 +3055,47 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="B335">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="B336">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44378</v>
+        <v>44382</v>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,39 +3151,39 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44400</v>
+        <v>44402</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44403</v>
+        <v>44405</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44410</v>
+        <v>44417</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,23 +3279,23 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44421</v>
+        <v>44423</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,23 +3303,23 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44426</v>
+        <v>44428</v>
       </c>
       <c r="B366">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44429</v>
+        <v>44431</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,23 +3343,23 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44435</v>
+        <v>44438</v>
       </c>
       <c r="B371">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44438</v>
+        <v>44447</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44447</v>
+        <v>44449</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44449</v>
+        <v>44455</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44455</v>
+        <v>44459</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44460</v>
+        <v>44466</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44468</v>
+        <v>44475</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44475</v>
+        <v>44477</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44477</v>
+        <v>44480</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,23 +3439,23 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44480</v>
+        <v>44485</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44486</v>
+        <v>44504</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44509</v>
+        <v>44511</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44511</v>
+        <v>44513</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44513</v>
+        <v>44523</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44523</v>
+        <v>44532</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44532</v>
+        <v>44536</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -3511,15 +3511,15 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44536</v>
+        <v>44539</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44539</v>
+        <v>44544</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44544</v>
+        <v>44549</v>
       </c>
       <c r="B393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44557</v>
+        <v>44561</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44561</v>
+        <v>44575</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44575</v>
+        <v>44581</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,23 +3583,23 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44582</v>
+        <v>44584</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="B401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -3615,39 +3615,39 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44594</v>
+        <v>44597</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44597</v>
+        <v>44599</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -3663,15 +3663,15 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44599</v>
+        <v>44601</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -3687,15 +3687,15 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44603</v>
+        <v>44604</v>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44604</v>
+        <v>44612</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,23 +3743,23 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44621</v>
+        <v>44630</v>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44631</v>
+        <v>44636</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44636</v>
+        <v>44639</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,23 +3783,23 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44639</v>
+        <v>44642</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,23 +3807,23 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44645</v>
+        <v>44650</v>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44650</v>
+        <v>44654</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44654</v>
+        <v>44659</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44659</v>
+        <v>44663</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44669</v>
+        <v>44684</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -3871,15 +3871,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44684</v>
+        <v>44686</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44686</v>
+        <v>44716</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -3887,15 +3887,15 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44716</v>
+        <v>44735</v>
       </c>
       <c r="B438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44735</v>
+        <v>44744</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44744</v>
+        <v>44750</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44750</v>
+        <v>44754</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44754</v>
+        <v>44764</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44764</v>
+        <v>44768</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44768</v>
+        <v>44770</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44771</v>
+        <v>44776</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44778</v>
+        <v>44779</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44779</v>
+        <v>44780</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44780</v>
+        <v>44785</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,23 +4007,23 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44788</v>
+        <v>44797</v>
       </c>
       <c r="B454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44797</v>
+        <v>44805</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44817</v>
+        <v>44823</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44823</v>
+        <v>44828</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44828</v>
+        <v>44830</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44832</v>
+        <v>44840</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44840</v>
+        <v>44871</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44871</v>
+        <v>44896</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44896</v>
+        <v>44910</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44910</v>
+        <v>44913</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44915</v>
+        <v>44932</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44932</v>
+        <v>44944</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44944</v>
+        <v>44959</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>44959</v>
+        <v>44993</v>
       </c>
       <c r="B471">
         <v>1</v>

--- a/regiones/fallecidos_pasco.xlsx
+++ b/regiones/fallecidos_pasco.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B471"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +650,7 @@
         <v>44007</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1015,23 +1015,23 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -1039,47 +1039,47 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -1087,55 +1087,55 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -1143,31 +1143,31 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1175,39 +1175,39 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>44087</v>
+        <v>44084</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1215,31 +1215,31 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1247,23 +1247,23 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -1271,15 +1271,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -1295,39 +1295,39 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>44118</v>
+        <v>44114</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>44121</v>
+        <v>44118</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>44127</v>
+        <v>44122</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>44131</v>
+        <v>44127</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -1423,31 +1423,31 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -1455,15 +1455,15 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1471,15 +1471,15 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44149</v>
+        <v>44145</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44157</v>
+        <v>44149</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1487,15 +1487,15 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1503,23 +1503,23 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1527,39 +1527,39 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -1567,63 +1567,63 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>44173</v>
+        <v>44169</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>44176</v>
+        <v>44173</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>44183</v>
+        <v>44179</v>
       </c>
       <c r="B154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B156">
         <v>2</v>
@@ -1639,31 +1639,31 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -1695,23 +1695,23 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -1727,15 +1727,15 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -1743,207 +1743,207 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="B172">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="B174">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="B177">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="B178">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="B179">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="B180">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B182">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B183">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B188">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B189">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B191">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B193">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -1951,135 +1951,135 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B196">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B199">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B201">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B203">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B205">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>44247</v>
+        <v>44246</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>44248</v>
+        <v>44247</v>
       </c>
       <c r="B211">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>44249</v>
+        <v>44248</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -2087,47 +2087,47 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>44254</v>
+        <v>44253</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>44255</v>
+        <v>44254</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -2135,15 +2135,15 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>44256</v>
+        <v>44255</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>44257</v>
+        <v>44256</v>
       </c>
       <c r="B220">
         <v>3</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -2159,23 +2159,23 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>44259</v>
+        <v>44258</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>44260</v>
+        <v>44259</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>44261</v>
+        <v>44260</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>44262</v>
+        <v>44261</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>44263</v>
+        <v>44262</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -2207,15 +2207,15 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B228">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B229">
         <v>4</v>
@@ -2223,79 +2223,79 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>44268</v>
+        <v>44267</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>44269</v>
+        <v>44268</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>44270</v>
+        <v>44269</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>44271</v>
+        <v>44270</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>44272</v>
+        <v>44271</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>44274</v>
+        <v>44273</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>44275</v>
+        <v>44274</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>44276</v>
+        <v>44275</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -2303,31 +2303,31 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>44277</v>
+        <v>44276</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>44278</v>
+        <v>44277</v>
       </c>
       <c r="B241">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>44279</v>
+        <v>44278</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>44282</v>
+        <v>44281</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -2351,167 +2351,167 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>44283</v>
+        <v>44282</v>
       </c>
       <c r="B246">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>44284</v>
+        <v>44283</v>
       </c>
       <c r="B247">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="B248">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>44286</v>
+        <v>44285</v>
       </c>
       <c r="B249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>44287</v>
+        <v>44286</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>44289</v>
+        <v>44288</v>
       </c>
       <c r="B252">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>44290</v>
+        <v>44289</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>44291</v>
+        <v>44290</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>44295</v>
+        <v>44294</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="B259">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>44297</v>
+        <v>44296</v>
       </c>
       <c r="B260">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>44300</v>
+        <v>44299</v>
       </c>
       <c r="B263">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B266">
         <v>5</v>
@@ -2519,119 +2519,119 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B267">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B268">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>44307</v>
+        <v>44306</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>44308</v>
+        <v>44307</v>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B275">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>44313</v>
+        <v>44312</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>44314</v>
+        <v>44313</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>44315</v>
+        <v>44314</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>44316</v>
+        <v>44315</v>
       </c>
       <c r="B279">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B281">
         <v>5</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B282">
         <v>5</v>
@@ -2647,31 +2647,31 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>44320</v>
+        <v>44319</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>44321</v>
+        <v>44320</v>
       </c>
       <c r="B284">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B285">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B286">
         <v>5</v>
@@ -2679,31 +2679,31 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B288">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B290">
         <v>8</v>
@@ -2711,55 +2711,55 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B292">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>44330</v>
+        <v>44329</v>
       </c>
       <c r="B293">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>44331</v>
+        <v>44330</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>44332</v>
+        <v>44331</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>44333</v>
+        <v>44332</v>
       </c>
       <c r="B296">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>44334</v>
+        <v>44333</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -2767,31 +2767,31 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>44336</v>
+        <v>44335</v>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>44338</v>
+        <v>44337</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -2799,23 +2799,23 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>44339</v>
+        <v>44338</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>44341</v>
+        <v>44339</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>44342</v>
+        <v>44341</v>
       </c>
       <c r="B304">
         <v>4</v>
@@ -2823,103 +2823,103 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>44343</v>
+        <v>44342</v>
       </c>
       <c r="B305">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>44345</v>
+        <v>44344</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>44346</v>
+        <v>44345</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B309">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>44348</v>
+        <v>44347</v>
       </c>
       <c r="B310">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>44349</v>
+        <v>44348</v>
       </c>
       <c r="B311">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>44352</v>
+        <v>44351</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>44353</v>
+        <v>44352</v>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>44354</v>
+        <v>44353</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -2927,15 +2927,15 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>44356</v>
+        <v>44355</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>44357</v>
+        <v>44356</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -2943,23 +2943,23 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B320">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>44359</v>
+        <v>44358</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>44363</v>
+        <v>44361</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -2975,15 +2975,15 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>44364</v>
+        <v>44363</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>44365</v>
+        <v>44364</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -2991,55 +2991,55 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>44366</v>
+        <v>44365</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>44367</v>
+        <v>44366</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>44368</v>
+        <v>44367</v>
       </c>
       <c r="B328">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>44369</v>
+        <v>44368</v>
       </c>
       <c r="B329">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="B330">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>44372</v>
+        <v>44371</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>44373</v>
+        <v>44372</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -3055,47 +3055,47 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>44375</v>
+        <v>44374</v>
       </c>
       <c r="B334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="B335">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="B336">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>44378</v>
+        <v>44377</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>44383</v>
+        <v>44382</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>44387</v>
+        <v>44384</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>44388</v>
+        <v>44387</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -3127,23 +3127,23 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>44389</v>
+        <v>44388</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>44390</v>
+        <v>44389</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>44391</v>
+        <v>44390</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -3151,39 +3151,39 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>44394</v>
+        <v>44393</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>44395</v>
+        <v>44394</v>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>44397</v>
+        <v>44395</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>44398</v>
+        <v>44397</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -3191,23 +3191,23 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>44399</v>
+        <v>44398</v>
       </c>
       <c r="B351">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>44402</v>
+        <v>44400</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>44405</v>
+        <v>44403</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>44410</v>
+        <v>44408</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>44417</v>
+        <v>44410</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -3279,23 +3279,23 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>44423</v>
+        <v>44421</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -3303,23 +3303,23 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>44426</v>
+        <v>44423</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>44428</v>
+        <v>44426</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>44431</v>
+        <v>44429</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -3343,23 +3343,23 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="B370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>44438</v>
+        <v>44435</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>44447</v>
+        <v>44438</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>44449</v>
+        <v>44447</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>44455</v>
+        <v>44449</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>44459</v>
+        <v>44455</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>44466</v>
+        <v>44460</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>44468</v>
+        <v>44466</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>44475</v>
+        <v>44468</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>44477</v>
+        <v>44475</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -3439,23 +3439,23 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>44504</v>
+        <v>44486</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>44523</v>
+        <v>44513</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>44532</v>
+        <v>44523</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>44536</v>
+        <v>44532</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -3511,15 +3511,15 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>44539</v>
+        <v>44536</v>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>44544</v>
+        <v>44539</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -3527,15 +3527,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>44549</v>
+        <v>44544</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>44556</v>
+        <v>44549</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>44561</v>
+        <v>44557</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>44575</v>
+        <v>44561</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -3583,23 +3583,23 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -3615,39 +3615,39 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B406">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>44597</v>
+        <v>44594</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>44599</v>
+        <v>44597</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -3663,15 +3663,15 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>44602</v>
+        <v>44601</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>44603</v>
+        <v>44602</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -3687,15 +3687,15 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -3743,23 +3743,23 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>44630</v>
+        <v>44621</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>44636</v>
+        <v>44631</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>44639</v>
+        <v>44636</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -3783,23 +3783,23 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>44642</v>
+        <v>44639</v>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -3807,23 +3807,23 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>44645</v>
+        <v>44644</v>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>44650</v>
+        <v>44645</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>44654</v>
+        <v>44650</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>44659</v>
+        <v>44654</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>44663</v>
+        <v>44659</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>44666</v>
+        <v>44663</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>44684</v>
+        <v>44669</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -3871,15 +3871,15 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>44686</v>
+        <v>44684</v>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>44716</v>
+        <v>44686</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -3887,15 +3887,15 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>44735</v>
+        <v>44716</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>44744</v>
+        <v>44735</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>44750</v>
+        <v>44744</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>44764</v>
+        <v>44754</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>44768</v>
+        <v>44764</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>44770</v>
+        <v>44768</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>44771</v>
+        <v>44770</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>44776</v>
+        <v>44771</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>44777</v>
+        <v>44776</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>44778</v>
+        <v>44777</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>44779</v>
+        <v>44778</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>44780</v>
+        <v>44779</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>44785</v>
+        <v>44780</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -4007,23 +4007,23 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>44788</v>
+        <v>44786</v>
       </c>
       <c r="B453">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>44797</v>
+        <v>44788</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>44805</v>
+        <v>44797</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>44823</v>
+        <v>44817</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>44828</v>
+        <v>44823</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>44830</v>
+        <v>44828</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>44832</v>
+        <v>44830</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>44840</v>
+        <v>44832</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>44871</v>
+        <v>44840</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>44896</v>
+        <v>44871</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>44910</v>
+        <v>44896</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>44913</v>
+        <v>44910</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>44915</v>
+        <v>44913</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>44932</v>
+        <v>44915</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>44944</v>
+        <v>44932</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>44959</v>
+        <v>44944</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -4151,9 +4151,17 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
         <v>44993</v>
       </c>
-      <c r="B471">
+      <c r="B472">
         <v>1</v>
       </c>
     </row>
